--- a/APublish/Config/Excel/D_掉落.xlsx
+++ b/APublish/Config/Excel/D_掉落.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4939B1A6-F36E-401E-BBCD-8457C07A979D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="掉落|ConfigDrop" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -180,12 +181,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="248">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,7 +1141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1348,72 +1349,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFCC00FF"/>
     </mruColors>
@@ -1437,7 +1372,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1725,30 +1660,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="222.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="222.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
@@ -1757,7 +1692,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1791,16 +1726,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>80000000</v>
       </c>
@@ -1829,7 +1766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>80000001</v>
       </c>
@@ -1843,7 +1780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>80000002</v>
       </c>
@@ -1860,7 +1797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>80000003</v>
       </c>
@@ -1877,7 +1814,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>80000004</v>
       </c>
@@ -1891,7 +1828,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>80100002</v>
       </c>
@@ -1905,7 +1842,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>80100003</v>
       </c>
@@ -1922,7 +1859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>80100004</v>
       </c>
@@ -1939,7 +1876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>80100005</v>
       </c>
@@ -1956,7 +1893,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>80100006</v>
       </c>
@@ -1973,7 +1910,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>80100007</v>
       </c>
@@ -1990,7 +1927,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>80100008</v>
       </c>
@@ -2007,7 +1944,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>80900001</v>
       </c>
@@ -2024,7 +1961,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>80900002</v>
       </c>
@@ -2038,7 +1975,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>80900003</v>
       </c>
@@ -2052,7 +1989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>80900004</v>
       </c>
@@ -2066,7 +2003,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>80900005</v>
       </c>
@@ -2080,7 +2017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>80900006</v>
       </c>
@@ -2094,7 +2031,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>80900007</v>
       </c>
@@ -2108,7 +2045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>80900008</v>
       </c>
@@ -2122,7 +2059,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>80900009</v>
       </c>
@@ -2136,7 +2073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>80900010</v>
       </c>
@@ -2150,7 +2087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>80900011</v>
       </c>
@@ -2164,7 +2101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>80900012</v>
       </c>
@@ -2178,7 +2115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>80900013</v>
       </c>
@@ -2192,7 +2129,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>80900014</v>
       </c>
@@ -2206,7 +2143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>80900015</v>
       </c>
@@ -2220,7 +2157,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>80900016</v>
       </c>
@@ -2253,7 +2190,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>80900017</v>
       </c>
@@ -2267,7 +2204,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>80900018</v>
       </c>
@@ -2281,7 +2218,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>80200001</v>
       </c>
@@ -2298,7 +2235,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>80301001</v>
       </c>
@@ -2315,7 +2252,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>80302001</v>
       </c>
@@ -2332,7 +2269,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>80302002</v>
       </c>
@@ -2349,7 +2286,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>80302003</v>
       </c>
@@ -2366,7 +2303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>80303001</v>
       </c>
@@ -2384,7 +2321,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>80303002</v>
       </c>
@@ -2402,7 +2339,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>80303003</v>
       </c>
@@ -2420,7 +2357,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>80303004</v>
       </c>
@@ -2438,7 +2375,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>80304001</v>
       </c>
@@ -2455,7 +2392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>80305001</v>
       </c>
@@ -2472,7 +2409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>80306001</v>
       </c>
@@ -2489,7 +2426,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>80307001</v>
       </c>
@@ -2506,7 +2443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>80308001</v>
       </c>
@@ -2523,7 +2460,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>80100601</v>
       </c>
@@ -2540,7 +2477,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>80100602</v>
       </c>
@@ -2557,7 +2494,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>80100603</v>
       </c>
@@ -2574,7 +2511,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>80100501</v>
       </c>
@@ -2591,7 +2528,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>80100502</v>
       </c>
@@ -2608,7 +2545,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>80100503</v>
       </c>
@@ -2625,7 +2562,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>80100504</v>
       </c>
@@ -2642,7 +2579,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>80100206</v>
       </c>
@@ -2659,7 +2596,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>80100207</v>
       </c>
@@ -2676,7 +2613,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>80100208</v>
       </c>
@@ -2693,7 +2630,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>80100701</v>
       </c>
@@ -2707,7 +2644,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>80100702</v>
       </c>
@@ -2721,7 +2658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>80100703</v>
       </c>
@@ -2735,7 +2672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>80100704</v>
       </c>
@@ -2749,7 +2686,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>80100001</v>
       </c>
@@ -2766,7 +2703,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>80100705</v>
       </c>
@@ -2780,7 +2717,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>80410101</v>
       </c>
@@ -2800,7 +2737,7 @@
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>80410102</v>
       </c>
@@ -2820,7 +2757,7 @@
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>80410201</v>
       </c>
@@ -2840,7 +2777,7 @@
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>80410301</v>
       </c>
@@ -2860,7 +2797,7 @@
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>80410302</v>
       </c>
@@ -2880,7 +2817,7 @@
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>80410303</v>
       </c>
@@ -2900,7 +2837,7 @@
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>80410304</v>
       </c>
@@ -2920,7 +2857,7 @@
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>80410401</v>
       </c>
@@ -2940,7 +2877,7 @@
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>80410402</v>
       </c>
@@ -2960,7 +2897,7 @@
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>80410403</v>
       </c>
@@ -2980,7 +2917,7 @@
       <c r="J75"/>
       <c r="K75"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>80420101</v>
       </c>
@@ -3000,7 +2937,7 @@
       <c r="J76"/>
       <c r="K76"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>80420102</v>
       </c>
@@ -3020,7 +2957,7 @@
       <c r="J77"/>
       <c r="K77"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>80420201</v>
       </c>
@@ -3040,7 +2977,7 @@
       <c r="J78"/>
       <c r="K78"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>80420301</v>
       </c>
@@ -3060,7 +2997,7 @@
       <c r="J79"/>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>80420302</v>
       </c>
@@ -3080,7 +3017,7 @@
       <c r="J80"/>
       <c r="K80"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80430101</v>
       </c>
@@ -3100,7 +3037,7 @@
       <c r="J81"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>80430102</v>
       </c>
@@ -3120,7 +3057,7 @@
       <c r="J82"/>
       <c r="K82"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>80430201</v>
       </c>
@@ -3140,7 +3077,7 @@
       <c r="J83"/>
       <c r="K83"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>80430301</v>
       </c>
@@ -3160,7 +3097,7 @@
       <c r="J84"/>
       <c r="K84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>80430401</v>
       </c>
@@ -3180,7 +3117,7 @@
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>80430402</v>
       </c>
@@ -3200,7 +3137,7 @@
       <c r="J86"/>
       <c r="K86"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>80430403</v>
       </c>
@@ -3220,7 +3157,7 @@
       <c r="J87"/>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>80420303</v>
       </c>
@@ -3240,7 +3177,7 @@
       <c r="J88"/>
       <c r="K88"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>80420304</v>
       </c>
@@ -3260,7 +3197,7 @@
       <c r="J89"/>
       <c r="K89"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>80440301</v>
       </c>
@@ -3280,7 +3217,7 @@
       <c r="J90"/>
       <c r="K90"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>80440302</v>
       </c>
@@ -3294,7 +3231,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>80440401</v>
       </c>
@@ -3308,7 +3245,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>80440402</v>
       </c>
@@ -3340,24 +3277,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -3367,7 +3304,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3387,7 +3324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3407,7 +3344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3354,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>89000001</v>
       </c>
@@ -3452,7 +3389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>89000002</v>
       </c>
@@ -3469,7 +3406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>89000003</v>
       </c>
@@ -3486,7 +3423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>89000004</v>
       </c>
@@ -3503,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>89000005</v>
       </c>
@@ -3520,7 +3457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>89000006</v>
       </c>
@@ -3548,21 +3485,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="G6:S29"/>
   <sheetViews>
     <sheetView topLeftCell="J19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="T29" sqref="L29:T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G6" t="str">
         <f>H6&amp;I6</f>
         <v>1333_21_61010111_1</v>
@@ -3592,7 +3529,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G7" t="str">
         <f t="shared" ref="G7:G13" si="2">H7&amp;I7</f>
         <v>1333_21_61010121_1</v>
@@ -3615,7 +3552,7 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="8" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G8" t="str">
         <f t="shared" si="2"/>
         <v>1334_21_61010131_1</v>
@@ -3638,7 +3575,7 @@
         <v>0.13339999999999999</v>
       </c>
     </row>
-    <row r="9" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G9" t="str">
         <f t="shared" si="2"/>
         <v>3800_21_62020101_1</v>
@@ -3668,7 +3605,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="10" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G10" t="str">
         <f t="shared" si="2"/>
         <v>900_21_62020102_1</v>
@@ -3691,7 +3628,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="11" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G11" t="str">
         <f t="shared" si="2"/>
         <v>200_21_62020103_1</v>
@@ -3714,7 +3651,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G12" t="str">
         <f t="shared" si="2"/>
         <v>1000_21_62020401_1</v>
@@ -3744,7 +3681,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G13" t="str">
         <f t="shared" si="2"/>
         <v>100_21_62020402_1</v>
@@ -3767,7 +3704,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
       <c r="J15">
         <f>SUM(J6:J13)</f>
         <v>1</v>
@@ -3781,7 +3718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H17" s="3">
         <v>61010111</v>
       </c>
@@ -3789,7 +3726,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H18" s="3">
         <v>61010112</v>
       </c>
@@ -3797,7 +3734,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H19" s="3">
         <v>61010113</v>
       </c>
@@ -3808,12 +3745,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H21" s="3">
         <v>61010121</v>
       </c>
@@ -3824,7 +3761,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H22" s="3">
         <v>61010122</v>
       </c>
@@ -3835,7 +3772,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H23" s="3">
         <v>61010123</v>
       </c>
@@ -3846,12 +3783,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="8:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:19" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H25" s="3">
         <v>61010131</v>
       </c>
@@ -3862,7 +3799,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H26" s="3">
         <v>61010132</v>
       </c>
@@ -3873,7 +3810,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
       <c r="H27" s="3">
         <v>61010133</v>
       </c>
@@ -3881,7 +3818,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>237</v>
       </c>

--- a/APublish/Config/Excel/D_掉落.xlsx
+++ b/APublish/Config/Excel/D_掉落.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4939B1A6-F36E-401E-BBCD-8457C07A979D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8C8291-BF9C-4302-9761-5B0B6CAABDD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="掉落|ConfigDrop" sheetId="2" r:id="rId1"/>
     <sheet name="掉落限制|ConfigDropLimit" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="掉落2|ConfigDrop" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -244,8 +245,167 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{2EEA450E-843E-46D5-826E-00E4AD1EF8A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+0-固定掉落，无需计算几率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-独立掉落。根据配置顺序，最多掉落</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个。1000000=100%掉落
+2-抽取放回掉落。每次只随机掉落一个，重复</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>次。根据权重计算掉落率
+3-抽取不放回掉落。每次从掉落池中抽取</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>N</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个。如果掉落池所有东西都掉完了，则不继续掉落。根据权重计算掉落率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{C66F19BF-D05C-4173-8528-78B253ADC97F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数量_权重
+多组数据 | 分割</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{D774E29C-8588-4370-B589-8D85F5F645AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+多组数据 | 分割
+不支持掉落资源。
+21-道具   权重/几率_类型_道具ID_数量
+22-武将   权重/几率_类型_武将ID_0_等级_是否精英
+23-装备   权重/几率_类型_装备ID_0_强化等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="248">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1305,7 +1465,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1322,16 +1502,6 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1664,26 +1834,26 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="222.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="222.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
@@ -1692,7 +1862,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1726,7 +1896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1907,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>80000000</v>
       </c>
@@ -1766,7 +1936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>80000001</v>
       </c>
@@ -1780,7 +1950,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>80000002</v>
       </c>
@@ -1797,7 +1967,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>80000003</v>
       </c>
@@ -1814,7 +1984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>80000004</v>
       </c>
@@ -1828,7 +1998,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>80100002</v>
       </c>
@@ -1842,7 +2012,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>80100003</v>
       </c>
@@ -1859,7 +2029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>80100004</v>
       </c>
@@ -1876,7 +2046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>80100005</v>
       </c>
@@ -1893,7 +2063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>80100006</v>
       </c>
@@ -1910,7 +2080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>80100007</v>
       </c>
@@ -1927,7 +2097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>80100008</v>
       </c>
@@ -1944,7 +2114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>80900001</v>
       </c>
@@ -1961,7 +2131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>80900002</v>
       </c>
@@ -1975,7 +2145,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>80900003</v>
       </c>
@@ -1989,7 +2159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>80900004</v>
       </c>
@@ -2003,7 +2173,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>80900005</v>
       </c>
@@ -2017,7 +2187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>80900006</v>
       </c>
@@ -2031,7 +2201,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>80900007</v>
       </c>
@@ -2045,7 +2215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>80900008</v>
       </c>
@@ -2059,7 +2229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>80900009</v>
       </c>
@@ -2073,7 +2243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>80900010</v>
       </c>
@@ -2087,7 +2257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>80900011</v>
       </c>
@@ -2101,7 +2271,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>80900012</v>
       </c>
@@ -2115,7 +2285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>80900013</v>
       </c>
@@ -2129,7 +2299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>80900014</v>
       </c>
@@ -2143,7 +2313,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>80900015</v>
       </c>
@@ -2157,7 +2327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>80900016</v>
       </c>
@@ -2190,7 +2360,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>80900017</v>
       </c>
@@ -2204,7 +2374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>80900018</v>
       </c>
@@ -2218,7 +2388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>80200001</v>
       </c>
@@ -2235,7 +2405,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>80301001</v>
       </c>
@@ -2252,7 +2422,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>80302001</v>
       </c>
@@ -2269,7 +2439,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>80302002</v>
       </c>
@@ -2286,7 +2456,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>80302003</v>
       </c>
@@ -2303,7 +2473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>80303001</v>
       </c>
@@ -2321,7 +2491,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>80303002</v>
       </c>
@@ -2339,7 +2509,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>80303003</v>
       </c>
@@ -2357,7 +2527,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>80303004</v>
       </c>
@@ -2375,7 +2545,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>80304001</v>
       </c>
@@ -2392,7 +2562,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>80305001</v>
       </c>
@@ -2409,7 +2579,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>80306001</v>
       </c>
@@ -2426,7 +2596,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>80307001</v>
       </c>
@@ -2443,7 +2613,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>80308001</v>
       </c>
@@ -2460,7 +2630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>80100601</v>
       </c>
@@ -2477,7 +2647,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>80100602</v>
       </c>
@@ -2494,7 +2664,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>80100603</v>
       </c>
@@ -2511,7 +2681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>80100501</v>
       </c>
@@ -2528,7 +2698,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>80100502</v>
       </c>
@@ -2545,7 +2715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>80100503</v>
       </c>
@@ -2562,7 +2732,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>80100504</v>
       </c>
@@ -2579,7 +2749,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>80100206</v>
       </c>
@@ -2596,7 +2766,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>80100207</v>
       </c>
@@ -2613,7 +2783,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>80100208</v>
       </c>
@@ -2630,7 +2800,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>80100701</v>
       </c>
@@ -2644,7 +2814,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>80100702</v>
       </c>
@@ -2658,7 +2828,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>80100703</v>
       </c>
@@ -2672,7 +2842,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>80100704</v>
       </c>
@@ -2686,7 +2856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>80100001</v>
       </c>
@@ -2703,7 +2873,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>80100705</v>
       </c>
@@ -2715,548 +2885,6 @@
       </c>
       <c r="E65" s="7" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
-        <v>80410101</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
-        <v>80410102</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
-        <v>80410201</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
-        <v>80410301</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
-        <v>80410302</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
-        <v>80410303</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
-        <v>80410304</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
-        <v>80410401</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
-        <v>80410402</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
-        <v>80410403</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
-        <v>80420101</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
-        <v>80420102</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
-        <v>80420201</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
-        <v>80420301</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>80420302</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
-        <v>80430101</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
-        <v>80430102</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
-        <v>80430201</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
-        <v>80430301</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="3">
-        <v>80430401</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="3">
-        <v>80430402</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="3">
-        <v>80430403</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="3">
-        <v>80420303</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="3">
-        <v>80420304</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="3">
-        <v>80440301</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="3">
-        <v>80440302</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="3">
-        <v>80440401</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="3">
-        <v>80440402</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3264,11 +2892,11 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A6:A93">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="D60:D63">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D63">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A6:A65">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3284,17 +2912,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -3304,7 +2932,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3324,7 +2952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3344,7 +2972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +2982,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +3000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>89000001</v>
       </c>
@@ -3389,7 +3017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>89000002</v>
       </c>
@@ -3406,7 +3034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>89000003</v>
       </c>
@@ -3423,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>89000004</v>
       </c>
@@ -3440,7 +3068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>89000005</v>
       </c>
@@ -3457,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>89000006</v>
       </c>
@@ -3492,14 +3120,14 @@
       <selection activeCell="T29" sqref="L29:T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G6" t="str">
         <f>H6&amp;I6</f>
         <v>1333_21_61010111_1</v>
@@ -3529,7 +3157,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G7" t="str">
         <f t="shared" ref="G7:G13" si="2">H7&amp;I7</f>
         <v>1333_21_61010121_1</v>
@@ -3552,7 +3180,7 @@
         <v>0.1333</v>
       </c>
     </row>
-    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G8" t="str">
         <f t="shared" si="2"/>
         <v>1334_21_61010131_1</v>
@@ -3575,7 +3203,7 @@
         <v>0.13339999999999999</v>
       </c>
     </row>
-    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G9" t="str">
         <f t="shared" si="2"/>
         <v>3800_21_62020101_1</v>
@@ -3605,7 +3233,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G10" t="str">
         <f t="shared" si="2"/>
         <v>900_21_62020102_1</v>
@@ -3628,7 +3256,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G11" t="str">
         <f t="shared" si="2"/>
         <v>200_21_62020103_1</v>
@@ -3651,7 +3279,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G12" t="str">
         <f t="shared" si="2"/>
         <v>1000_21_62020401_1</v>
@@ -3681,7 +3309,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G13" t="str">
         <f t="shared" si="2"/>
         <v>100_21_62020402_1</v>
@@ -3704,7 +3332,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:14" x14ac:dyDescent="0.2">
       <c r="J15">
         <f>SUM(J6:J13)</f>
         <v>1</v>
@@ -3718,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H17" s="3">
         <v>61010111</v>
       </c>
@@ -3726,7 +3354,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H18" s="3">
         <v>61010112</v>
       </c>
@@ -3734,7 +3362,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H19" s="3">
         <v>61010113</v>
       </c>
@@ -3745,12 +3373,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.2">
       <c r="L20" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H21" s="3">
         <v>61010121</v>
       </c>
@@ -3761,7 +3389,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H22" s="3">
         <v>61010122</v>
       </c>
@@ -3772,7 +3400,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H23" s="3">
         <v>61010123</v>
       </c>
@@ -3783,12 +3411,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:19" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H25" s="3">
         <v>61010131</v>
       </c>
@@ -3799,7 +3427,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H26" s="3">
         <v>61010132</v>
       </c>
@@ -3810,7 +3438,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="8:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H27" s="3">
         <v>61010133</v>
       </c>
@@ -3818,7 +3446,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
         <v>237</v>
       </c>
@@ -3847,12 +3475,691 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H25:H27 H17:H19 H21:H23">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H27 H17:H19 H21:H23">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6EF6F0-612E-4E64-B504-86B05273428C}">
+  <dimension ref="A1:K93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="222.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>80410101</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>80410102</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>80410201</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>80410301</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>80410302</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>80410303</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>80410304</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>80410401</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>80410402</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>80410403</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>80420101</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>80420102</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>80420201</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>80420301</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>80420302</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>80430101</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>80430102</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>80430201</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>80430301</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>80430401</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>80430402</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>80430403</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>80420303</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>80420304</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>80440301</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>80440302</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>80440401</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>80440402</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="16.5" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A6:A33">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>